--- a/TeamRatings.xlsx
+++ b/TeamRatings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taeyong/Documents/SWE/Python Projects/NBA Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A5D411-3452-0742-B41F-1E886A592760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFA88E8-8618-654E-8BEE-341D4B74C7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B25A636A-4048-1D45-8977-CC513B9EEE70}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B25A636A-4048-1D45-8977-CC513B9EEE70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA20139-3155-1C4D-A255-40FB2C12458C}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
